--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\DemoS_004 (pj)\DemoS_004 (pj)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DemoS_004 (pj)\DemoS_004 (pj)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1135602F-A4FA-4268-9FFC-58AB30BE5ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D902D65-BB9D-4D4D-AD0E-EBA0AA4B28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,18 @@
     <sheet name="Pri_NUC" sheetId="144" r:id="rId7"/>
     <sheet name="Sector_Fuels" sheetId="140" r:id="rId8"/>
     <sheet name="Con_ELC" sheetId="143" r:id="rId9"/>
-    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId10"/>
-    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId11"/>
-    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId12"/>
-    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId13"/>
-    <sheet name="Demands" sheetId="134" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="147" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="148" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="149" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="150" r:id="rId13"/>
+    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId14"/>
+    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId15"/>
+    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId16"/>
+    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId17"/>
+    <sheet name="Demands" sheetId="134" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -9748,7 +9752,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10198,6 +10202,7 @@
     <xf numFmtId="1" fontId="26" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="26" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="17" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13698,8 +13703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -15047,6 +15052,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C464DF-7D90-4CE2-B4C5-C04314FBAECD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A98060-AB52-45F6-A43A-CDE4B3C8E19A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A2FE35-5CBF-4754-AEA6-A95A4FA35FAE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDB8AEB-67BE-419D-93EA-EF7AC54B1429}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
@@ -15625,7 +15678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
@@ -16201,7 +16254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
@@ -16883,7 +16936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
@@ -17552,12 +17605,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -17634,19 +17687,19 @@
         <v>193</v>
       </c>
       <c r="E6" s="169">
+        <v>2015</v>
+      </c>
+      <c r="F6" s="169">
         <v>2016</v>
       </c>
-      <c r="F6" s="169">
-        <v>2017</v>
-      </c>
       <c r="G6" s="169">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H6" s="169">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="I6" s="169">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>102</v>
@@ -17838,22 +17891,22 @@
       </c>
       <c r="F12" s="156">
         <f>$E$12*(1+$K$12)^(F6-$E$6)</f>
-        <v>55.840879999999999</v>
+        <v>58.052399999999999</v>
       </c>
       <c r="G12" s="156">
         <f>$E$12*(1+$K$12)^(G6-$E$6)</f>
-        <v>58.108243649928795</v>
+        <v>70.563055027499999</v>
       </c>
       <c r="H12" s="156">
         <f>$E$12*(1+$K$12)^(H6-$E$6)</f>
-        <v>61.072348069734687</v>
+        <v>90.058326125271179</v>
       </c>
       <c r="I12" s="156">
         <f>$E$12*(1+$K$12)^(I6-$E$6)</f>
-        <v>64.187651604496466</v>
+        <v>114.93978118329569</v>
       </c>
       <c r="K12" s="171">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L12" s="171">
         <v>0.05</v>
@@ -22428,8 +22481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AB37"/>
   <sheetViews>
-    <sheetView topLeftCell="S7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -22935,9 +22988,8 @@
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="E12" s="140">
-        <f>(-EnergyBalance!D11*G12)/(H12*O12)</f>
-        <v>0</v>
+      <c r="E12" s="265">
+        <v>0.12</v>
       </c>
       <c r="F12" s="140"/>
       <c r="G12" s="186">
@@ -22965,7 +23017,7 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="66">
         <f>E12*$H12*$O12</f>
-        <v>0</v>
+        <v>3.216672</v>
       </c>
       <c r="S12" s="68"/>
       <c r="T12" s="199" t="s">
@@ -23050,9 +23102,8 @@
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="E14" s="140">
-        <f>(-EnergyBalance!E11*G14)/(H14*O14)</f>
-        <v>2.1017425463336017</v>
+      <c r="E14" s="265">
+        <v>2.2999999999999998</v>
       </c>
       <c r="F14" s="140"/>
       <c r="G14" s="187">
@@ -23081,7 +23132,7 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="66">
         <f>E14*H14*O14</f>
-        <v>56.338469999999994</v>
+        <v>61.652879999999996</v>
       </c>
       <c r="S14" s="69"/>
       <c r="T14" s="199"/>
@@ -23162,9 +23213,8 @@
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="E16" s="140">
-        <f>((-EnergyBalance!F11*G16)/(H16*O16))</f>
-        <v>0</v>
+      <c r="E16" s="265">
+        <v>0.12</v>
       </c>
       <c r="F16" s="140"/>
       <c r="G16" s="187">
@@ -23194,7 +23244,7 @@
       <c r="Q16" s="51"/>
       <c r="R16" s="66">
         <f>E16*H16*O16</f>
-        <v>0</v>
+        <v>3.216672</v>
       </c>
       <c r="S16" s="69"/>
       <c r="T16" s="199"/>
@@ -23281,13 +23331,12 @@
         <f>$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="E18" s="140">
-        <f>(-EnergyBalance!H11*G18)/(H18*O18)</f>
-        <v>3.0800777946896667</v>
+      <c r="E18" s="265">
+        <v>3.3</v>
       </c>
       <c r="F18" s="140">
         <f>E18</f>
-        <v>3.0800777946896667</v>
+        <v>3.3</v>
       </c>
       <c r="G18" s="186">
         <v>1</v>
@@ -23311,7 +23360,7 @@
       <c r="Q18" s="49"/>
       <c r="R18" s="66">
         <f>E18*H18*O18</f>
-        <v>43.71</v>
+        <v>46.830959999999997</v>
       </c>
       <c r="S18" s="69"/>
       <c r="T18" s="199"/>

--- a/VT_REG_PRI_V04.xlsx
+++ b/VT_REG_PRI_V04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DemoS_004 (pj)\DemoS_004 (pj)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D902D65-BB9D-4D4D-AD0E-EBA0AA4B28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEBFBD7-6606-4DE0-BDB9-3F188E1ACBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -13703,7 +13703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -18824,8 +18824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -19149,7 +19149,7 @@
         <v>650</v>
       </c>
       <c r="H11" s="123">
-        <v>9.1000000000000004E-3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="116">
         <f>EnergyBalance!$E$5*EnergyBalance!E37</f>
@@ -19273,7 +19273,7 @@
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
       <c r="H14" s="123">
-        <v>0.01</v>
+        <v>6</v>
       </c>
       <c r="I14" s="121">
         <v>0</v>
@@ -19318,7 +19318,7 @@
       </c>
       <c r="G15"/>
       <c r="H15" s="123">
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="I15" s="117">
         <f>-EnergyBalance!E7</f>
@@ -19604,7 +19604,7 @@
   <dimension ref="B1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22482,7 +22482,7 @@
   <dimension ref="B1:AB37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -23334,10 +23334,7 @@
       <c r="E18" s="265">
         <v>3.3</v>
       </c>
-      <c r="F18" s="140">
-        <f>E18</f>
-        <v>3.3</v>
-      </c>
+      <c r="F18" s="140"/>
       <c r="G18" s="186">
         <v>1</v>
       </c>
